--- a/dataset/Модель_пористости.xlsx
+++ b/dataset/Модель_пористости.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\QForm_practice\dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{042BBD58-EAEB-4159-9566-6B118833F72C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29DEFA7D-1EEA-45AE-B5C2-98E401E491D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3465" yWindow="3465" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -431,7 +431,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I14" sqref="I14"/>
+      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/dataset/Модель_пористости.xlsx
+++ b/dataset/Модель_пористости.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\QForm_practice\dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29DEFA7D-1EEA-45AE-B5C2-98E401E491D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C6E7D21-471C-4E3C-8AD5-A5967D68D56A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3465" yWindow="3465" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -431,7 +431,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
+      <selection pane="bottomLeft" activeCell="F2" sqref="F2:I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/dataset/Модель_пористости.xlsx
+++ b/dataset/Модель_пористости.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\QForm_practice\dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C6E7D21-471C-4E3C-8AD5-A5967D68D56A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3FBC93D-1019-4E73-BF29-53A260E60540}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3465" yWindow="3465" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -431,7 +431,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F2" sqref="F2:I3"/>
+      <selection pane="bottomLeft" activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/dataset/Модель_пористости.xlsx
+++ b/dataset/Модель_пористости.xlsx
@@ -5,18 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\QForm_practice\dataset\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Python\QForm_practice\dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3FBC93D-1019-4E73-BF29-53A260E60540}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6F17468-2704-4DE0-B8F1-55ABD3FF2EAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3465" yWindow="3465" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A:$I</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A:$L</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
@@ -115,7 +116,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -131,9 +132,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -171,7 +172,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -277,7 +278,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -427,14 +428,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L1048576"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:L417"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J5" sqref="J5"/>
+      <selection pane="bottomLeft" activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.42578125" customWidth="1"/>
     <col min="2" max="2" width="15.85546875" customWidth="1"/>
@@ -10945,12 +10947,27 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1048576" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I1048576" s="1"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:I1048576" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:L1048576" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="0">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F54BDBEE-C9BF-4FE4-B51A-B42BFCF8446F}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>